--- a/Phase-1 (Web Scrapping and Data collection)/DatasetPreparation/LogFile.xlsx
+++ b/Phase-1 (Web Scrapping and Data collection)/DatasetPreparation/LogFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="2116">
   <si>
     <t>PhishID</t>
   </si>
@@ -49,52 +49,52 @@
     <t>Status Code</t>
   </si>
   <si>
-    <t>1838561</t>
-  </si>
-  <si>
-    <t>1838489</t>
-  </si>
-  <si>
-    <t>1838488</t>
-  </si>
-  <si>
-    <t>1838377</t>
-  </si>
-  <si>
-    <t>1838343</t>
-  </si>
-  <si>
-    <t>1838290</t>
-  </si>
-  <si>
-    <t>1838284</t>
-  </si>
-  <si>
-    <t>1838281</t>
-  </si>
-  <si>
-    <t>1838179</t>
-  </si>
-  <si>
-    <t>1838178</t>
-  </si>
-  <si>
-    <t>1837900</t>
-  </si>
-  <si>
-    <t>1837877</t>
-  </si>
-  <si>
-    <t>1837438</t>
-  </si>
-  <si>
-    <t>1837167</t>
-  </si>
-  <si>
-    <t>1837048</t>
-  </si>
-  <si>
-    <t>1836959</t>
+    <t>8224545</t>
+  </si>
+  <si>
+    <t>8220112</t>
+  </si>
+  <si>
+    <t>8212431</t>
+  </si>
+  <si>
+    <t>8210845</t>
+  </si>
+  <si>
+    <t>8210844</t>
+  </si>
+  <si>
+    <t>8210832</t>
+  </si>
+  <si>
+    <t>8202280</t>
+  </si>
+  <si>
+    <t>8193253</t>
+  </si>
+  <si>
+    <t>8193132</t>
+  </si>
+  <si>
+    <t>8183182</t>
+  </si>
+  <si>
+    <t>8183181</t>
+  </si>
+  <si>
+    <t>8183180</t>
+  </si>
+  <si>
+    <t>8181738</t>
+  </si>
+  <si>
+    <t>8178135</t>
+  </si>
+  <si>
+    <t>8176105</t>
+  </si>
+  <si>
+    <t>8172043</t>
   </si>
   <si>
     <t>http://paypal-net.com/</t>
@@ -6732,7 +6732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2141"/>
+  <dimension ref="A1:K2157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -81114,8 +81114,8 @@
       </c>
     </row>
     <row r="2126" spans="1:11">
-      <c r="A2126" t="s">
-        <v>11</v>
+      <c r="A2126">
+        <v>1838561</v>
       </c>
       <c r="B2126" s="2" t="s">
         <v>2101</v>
@@ -81149,8 +81149,8 @@
       </c>
     </row>
     <row r="2127" spans="1:11">
-      <c r="A2127" t="s">
-        <v>12</v>
+      <c r="A2127">
+        <v>1838489</v>
       </c>
       <c r="B2127" s="2" t="s">
         <v>2102</v>
@@ -81184,8 +81184,8 @@
       </c>
     </row>
     <row r="2128" spans="1:11">
-      <c r="A2128" t="s">
-        <v>13</v>
+      <c r="A2128">
+        <v>1838488</v>
       </c>
       <c r="B2128" s="2" t="s">
         <v>2103</v>
@@ -81219,8 +81219,8 @@
       </c>
     </row>
     <row r="2129" spans="1:11">
-      <c r="A2129" t="s">
-        <v>14</v>
+      <c r="A2129">
+        <v>1838377</v>
       </c>
       <c r="B2129" s="2" t="s">
         <v>2104</v>
@@ -81254,8 +81254,8 @@
       </c>
     </row>
     <row r="2130" spans="1:11">
-      <c r="A2130" t="s">
-        <v>15</v>
+      <c r="A2130">
+        <v>1838343</v>
       </c>
       <c r="B2130" s="2" t="s">
         <v>2105</v>
@@ -81289,8 +81289,8 @@
       </c>
     </row>
     <row r="2131" spans="1:11">
-      <c r="A2131" t="s">
-        <v>16</v>
+      <c r="A2131">
+        <v>1838290</v>
       </c>
       <c r="B2131" s="2" t="s">
         <v>2106</v>
@@ -81324,8 +81324,8 @@
       </c>
     </row>
     <row r="2132" spans="1:11">
-      <c r="A2132" t="s">
-        <v>17</v>
+      <c r="A2132">
+        <v>1838284</v>
       </c>
       <c r="B2132" s="2" t="s">
         <v>2107</v>
@@ -81359,8 +81359,8 @@
       </c>
     </row>
     <row r="2133" spans="1:11">
-      <c r="A2133" t="s">
-        <v>18</v>
+      <c r="A2133">
+        <v>1838281</v>
       </c>
       <c r="B2133" s="2" t="s">
         <v>2108</v>
@@ -81394,8 +81394,8 @@
       </c>
     </row>
     <row r="2134" spans="1:11">
-      <c r="A2134" t="s">
-        <v>19</v>
+      <c r="A2134">
+        <v>1838179</v>
       </c>
       <c r="B2134" s="2" t="s">
         <v>2109</v>
@@ -81429,8 +81429,8 @@
       </c>
     </row>
     <row r="2135" spans="1:11">
-      <c r="A2135" t="s">
-        <v>20</v>
+      <c r="A2135">
+        <v>1838178</v>
       </c>
       <c r="B2135" s="2" t="s">
         <v>2110</v>
@@ -81464,8 +81464,8 @@
       </c>
     </row>
     <row r="2136" spans="1:11">
-      <c r="A2136" t="s">
-        <v>21</v>
+      <c r="A2136">
+        <v>1837900</v>
       </c>
       <c r="B2136" s="2" t="s">
         <v>2111</v>
@@ -81499,8 +81499,8 @@
       </c>
     </row>
     <row r="2137" spans="1:11">
-      <c r="A2137" t="s">
-        <v>22</v>
+      <c r="A2137">
+        <v>1837877</v>
       </c>
       <c r="B2137" s="2" t="s">
         <v>2112</v>
@@ -81534,8 +81534,8 @@
       </c>
     </row>
     <row r="2138" spans="1:11">
-      <c r="A2138" t="s">
-        <v>23</v>
+      <c r="A2138">
+        <v>1837438</v>
       </c>
       <c r="B2138" s="2" t="s">
         <v>2113</v>
@@ -81569,8 +81569,8 @@
       </c>
     </row>
     <row r="2139" spans="1:11">
-      <c r="A2139" t="s">
-        <v>24</v>
+      <c r="A2139">
+        <v>1837167</v>
       </c>
       <c r="B2139" s="2" t="s">
         <v>2114</v>
@@ -81604,8 +81604,8 @@
       </c>
     </row>
     <row r="2140" spans="1:11">
-      <c r="A2140" t="s">
-        <v>25</v>
+      <c r="A2140">
+        <v>1837048</v>
       </c>
       <c r="B2140" s="2" t="s">
         <v>2115</v>
@@ -81639,8 +81639,8 @@
       </c>
     </row>
     <row r="2141" spans="1:11">
-      <c r="A2141" t="s">
-        <v>26</v>
+      <c r="A2141">
+        <v>1836959</v>
       </c>
       <c r="B2141" s="2" t="s">
         <v>2115</v>
@@ -81670,6 +81670,566 @@
         <v>1</v>
       </c>
       <c r="K2141">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:11">
+      <c r="A2142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2142" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C2142">
+        <v>1</v>
+      </c>
+      <c r="D2142">
+        <v>1</v>
+      </c>
+      <c r="E2142">
+        <v>1</v>
+      </c>
+      <c r="F2142">
+        <v>0</v>
+      </c>
+      <c r="G2142">
+        <v>0</v>
+      </c>
+      <c r="H2142">
+        <v>0</v>
+      </c>
+      <c r="I2142">
+        <v>1</v>
+      </c>
+      <c r="J2142">
+        <v>1</v>
+      </c>
+      <c r="K2142">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:11">
+      <c r="A2143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2143">
+        <v>1</v>
+      </c>
+      <c r="D2143">
+        <v>1</v>
+      </c>
+      <c r="E2143">
+        <v>1</v>
+      </c>
+      <c r="F2143">
+        <v>1</v>
+      </c>
+      <c r="G2143">
+        <v>0</v>
+      </c>
+      <c r="H2143">
+        <v>0</v>
+      </c>
+      <c r="I2143">
+        <v>1</v>
+      </c>
+      <c r="J2143">
+        <v>1</v>
+      </c>
+      <c r="K2143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:11">
+      <c r="A2144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2144">
+        <v>0</v>
+      </c>
+      <c r="D2144">
+        <v>0</v>
+      </c>
+      <c r="E2144">
+        <v>0</v>
+      </c>
+      <c r="F2144">
+        <v>0</v>
+      </c>
+      <c r="G2144">
+        <v>0</v>
+      </c>
+      <c r="H2144">
+        <v>0</v>
+      </c>
+      <c r="I2144">
+        <v>0</v>
+      </c>
+      <c r="J2144">
+        <v>0</v>
+      </c>
+      <c r="K2144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:11">
+      <c r="A2145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2145">
+        <v>1</v>
+      </c>
+      <c r="D2145">
+        <v>1</v>
+      </c>
+      <c r="E2145">
+        <v>1</v>
+      </c>
+      <c r="F2145">
+        <v>1</v>
+      </c>
+      <c r="G2145">
+        <v>0</v>
+      </c>
+      <c r="H2145">
+        <v>0</v>
+      </c>
+      <c r="I2145">
+        <v>1</v>
+      </c>
+      <c r="J2145">
+        <v>1</v>
+      </c>
+      <c r="K2145">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:11">
+      <c r="A2146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2146" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2146">
+        <v>1</v>
+      </c>
+      <c r="D2146">
+        <v>1</v>
+      </c>
+      <c r="E2146">
+        <v>1</v>
+      </c>
+      <c r="F2146">
+        <v>1</v>
+      </c>
+      <c r="G2146">
+        <v>0</v>
+      </c>
+      <c r="H2146">
+        <v>0</v>
+      </c>
+      <c r="I2146">
+        <v>1</v>
+      </c>
+      <c r="J2146">
+        <v>1</v>
+      </c>
+      <c r="K2146">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:11">
+      <c r="A2147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2147">
+        <v>0</v>
+      </c>
+      <c r="D2147">
+        <v>0</v>
+      </c>
+      <c r="E2147">
+        <v>0</v>
+      </c>
+      <c r="F2147">
+        <v>0</v>
+      </c>
+      <c r="G2147">
+        <v>0</v>
+      </c>
+      <c r="H2147">
+        <v>0</v>
+      </c>
+      <c r="I2147">
+        <v>0</v>
+      </c>
+      <c r="J2147">
+        <v>0</v>
+      </c>
+      <c r="K2147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:11">
+      <c r="A2148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2148" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2148">
+        <v>1</v>
+      </c>
+      <c r="D2148">
+        <v>1</v>
+      </c>
+      <c r="E2148">
+        <v>1</v>
+      </c>
+      <c r="F2148">
+        <v>1</v>
+      </c>
+      <c r="G2148">
+        <v>0</v>
+      </c>
+      <c r="H2148">
+        <v>0</v>
+      </c>
+      <c r="I2148">
+        <v>1</v>
+      </c>
+      <c r="J2148">
+        <v>1</v>
+      </c>
+      <c r="K2148">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:11">
+      <c r="A2149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2149">
+        <v>1</v>
+      </c>
+      <c r="D2149">
+        <v>1</v>
+      </c>
+      <c r="E2149">
+        <v>1</v>
+      </c>
+      <c r="F2149">
+        <v>1</v>
+      </c>
+      <c r="G2149">
+        <v>0</v>
+      </c>
+      <c r="H2149">
+        <v>0</v>
+      </c>
+      <c r="I2149">
+        <v>0</v>
+      </c>
+      <c r="J2149">
+        <v>1</v>
+      </c>
+      <c r="K2149">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:11">
+      <c r="A2150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2150" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2150">
+        <v>1</v>
+      </c>
+      <c r="D2150">
+        <v>1</v>
+      </c>
+      <c r="E2150">
+        <v>1</v>
+      </c>
+      <c r="F2150">
+        <v>1</v>
+      </c>
+      <c r="G2150">
+        <v>0</v>
+      </c>
+      <c r="H2150">
+        <v>0</v>
+      </c>
+      <c r="I2150">
+        <v>0</v>
+      </c>
+      <c r="J2150">
+        <v>1</v>
+      </c>
+      <c r="K2150">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:11">
+      <c r="A2151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2151" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2151">
+        <v>1</v>
+      </c>
+      <c r="D2151">
+        <v>1</v>
+      </c>
+      <c r="E2151">
+        <v>1</v>
+      </c>
+      <c r="F2151">
+        <v>1</v>
+      </c>
+      <c r="G2151">
+        <v>0</v>
+      </c>
+      <c r="H2151">
+        <v>0</v>
+      </c>
+      <c r="I2151">
+        <v>1</v>
+      </c>
+      <c r="J2151">
+        <v>1</v>
+      </c>
+      <c r="K2151">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:11">
+      <c r="A2152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2152">
+        <v>1</v>
+      </c>
+      <c r="D2152">
+        <v>1</v>
+      </c>
+      <c r="E2152">
+        <v>1</v>
+      </c>
+      <c r="F2152">
+        <v>1</v>
+      </c>
+      <c r="G2152">
+        <v>0</v>
+      </c>
+      <c r="H2152">
+        <v>0</v>
+      </c>
+      <c r="I2152">
+        <v>0</v>
+      </c>
+      <c r="J2152">
+        <v>1</v>
+      </c>
+      <c r="K2152">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:11">
+      <c r="A2153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2153" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2153">
+        <v>1</v>
+      </c>
+      <c r="D2153">
+        <v>1</v>
+      </c>
+      <c r="E2153">
+        <v>1</v>
+      </c>
+      <c r="F2153">
+        <v>1</v>
+      </c>
+      <c r="G2153">
+        <v>0</v>
+      </c>
+      <c r="H2153">
+        <v>0</v>
+      </c>
+      <c r="I2153">
+        <v>1</v>
+      </c>
+      <c r="J2153">
+        <v>1</v>
+      </c>
+      <c r="K2153">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:11">
+      <c r="A2154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2154" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2154">
+        <v>1</v>
+      </c>
+      <c r="D2154">
+        <v>1</v>
+      </c>
+      <c r="E2154">
+        <v>1</v>
+      </c>
+      <c r="F2154">
+        <v>1</v>
+      </c>
+      <c r="G2154">
+        <v>0</v>
+      </c>
+      <c r="H2154">
+        <v>0</v>
+      </c>
+      <c r="I2154">
+        <v>1</v>
+      </c>
+      <c r="J2154">
+        <v>1</v>
+      </c>
+      <c r="K2154">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:11">
+      <c r="A2155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2155" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2155">
+        <v>1</v>
+      </c>
+      <c r="D2155">
+        <v>0</v>
+      </c>
+      <c r="E2155">
+        <v>0</v>
+      </c>
+      <c r="F2155">
+        <v>0</v>
+      </c>
+      <c r="G2155">
+        <v>0</v>
+      </c>
+      <c r="H2155">
+        <v>0</v>
+      </c>
+      <c r="I2155">
+        <v>0</v>
+      </c>
+      <c r="J2155">
+        <v>1</v>
+      </c>
+      <c r="K2155">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:11">
+      <c r="A2156" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2156" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2156">
+        <v>1</v>
+      </c>
+      <c r="D2156">
+        <v>1</v>
+      </c>
+      <c r="E2156">
+        <v>1</v>
+      </c>
+      <c r="F2156">
+        <v>1</v>
+      </c>
+      <c r="G2156">
+        <v>0</v>
+      </c>
+      <c r="H2156">
+        <v>0</v>
+      </c>
+      <c r="I2156">
+        <v>1</v>
+      </c>
+      <c r="J2156">
+        <v>1</v>
+      </c>
+      <c r="K2156">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:11">
+      <c r="A2157" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2157">
+        <v>1</v>
+      </c>
+      <c r="D2157">
+        <v>1</v>
+      </c>
+      <c r="E2157">
+        <v>1</v>
+      </c>
+      <c r="F2157">
+        <v>1</v>
+      </c>
+      <c r="G2157">
+        <v>0</v>
+      </c>
+      <c r="H2157">
+        <v>0</v>
+      </c>
+      <c r="I2157">
+        <v>1</v>
+      </c>
+      <c r="J2157">
+        <v>1</v>
+      </c>
+      <c r="K2157">
         <v>200</v>
       </c>
     </row>
@@ -83815,6 +84375,22 @@
     <hyperlink ref="B2139" r:id="rId2138"/>
     <hyperlink ref="B2140" r:id="rId2139"/>
     <hyperlink ref="B2141" r:id="rId2140"/>
+    <hyperlink ref="B2142" r:id="rId2141"/>
+    <hyperlink ref="B2143" r:id="rId2142"/>
+    <hyperlink ref="B2144" r:id="rId2143"/>
+    <hyperlink ref="B2145" r:id="rId2144"/>
+    <hyperlink ref="B2146" r:id="rId2145"/>
+    <hyperlink ref="B2147" r:id="rId2146"/>
+    <hyperlink ref="B2148" r:id="rId2147"/>
+    <hyperlink ref="B2149" r:id="rId2148"/>
+    <hyperlink ref="B2150" r:id="rId2149"/>
+    <hyperlink ref="B2151" r:id="rId2150"/>
+    <hyperlink ref="B2152" r:id="rId2151"/>
+    <hyperlink ref="B2153" r:id="rId2152"/>
+    <hyperlink ref="B2154" r:id="rId2153"/>
+    <hyperlink ref="B2155" r:id="rId2154"/>
+    <hyperlink ref="B2156" r:id="rId2155"/>
+    <hyperlink ref="B2157" r:id="rId2156"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
